--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3918796.994583203</v>
+        <v>3914491.278207134</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>183.6207664008803</v>
+        <v>80.36913259236702</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -825,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>52.10844059186275</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>246.1966463278933</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -949,13 +949,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>48.60813945702061</v>
       </c>
       <c r="V5" t="n">
-        <v>138.9470306844518</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>197.8509087195822</v>
       </c>
       <c r="T7" t="n">
-        <v>50.05665370612862</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>357.973106993629</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>18.19123353922711</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>121.0577234277013</v>
+        <v>202.3860496764733</v>
       </c>
     </row>
     <row r="11">
@@ -1372,19 +1372,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G13" t="n">
-        <v>155.1980648094037</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012179</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>60.25690685266458</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="14">
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569554</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881288</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.240968717414</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>30.97191586387523</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U16" t="n">
-        <v>104.3471808964294</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695544</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805175917</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I19" t="n">
-        <v>36.74735985927995</v>
+        <v>81.26583631856568</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012183</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634798</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881288</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012183</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797008</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V22" t="n">
-        <v>53.22824985092608</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="23">
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.6921136716495</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>55.52079624060195</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="26">
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>31.39650288673342</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881278</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>5.623597659136203</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3429,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>33.66638448560004</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>52.54490042791004</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3903,16 +3903,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>33.66638448559998</v>
       </c>
       <c r="G43" t="n">
-        <v>61.62152140683692</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>113.0992099793461</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1328.309493689272</v>
+        <v>546.109828622464</v>
       </c>
       <c r="C2" t="n">
-        <v>959.3469767488602</v>
+        <v>546.109828622464</v>
       </c>
       <c r="D2" t="n">
-        <v>959.3469767488602</v>
+        <v>546.109828622464</v>
       </c>
       <c r="E2" t="n">
-        <v>573.5587241506159</v>
+        <v>546.109828622464</v>
       </c>
       <c r="F2" t="n">
-        <v>566.6132234014125</v>
+        <v>135.1239238328564</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2478.514423990285</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2478.514423990285</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2105.048665729205</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1714.909333753394</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="3">
@@ -4415,10 +4415,10 @@
         <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>580.2158906240413</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>433.3259431261309</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>264.3261428644633</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>106.5777702969935</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4521,19 +4521,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>990.5839652830418</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="C5" t="n">
         <v>990.5839652830418</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2416.843783098218</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.957710790048</v>
+        <v>2085.780895754648</v>
       </c>
       <c r="W5" t="n">
-        <v>1754.189055519933</v>
+        <v>1733.012240484533</v>
       </c>
       <c r="X5" t="n">
-        <v>1380.723297258854</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="Y5" t="n">
-        <v>990.5839652830418</v>
+        <v>1359.546482223453</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406185</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="T7" t="n">
-        <v>529.4200491697815</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="U7" t="n">
-        <v>529.4200491697815</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="V7" t="n">
-        <v>274.7355609638946</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="W7" t="n">
-        <v>274.7355609638946</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1973.365536512648</v>
+        <v>1939.53435171864</v>
       </c>
       <c r="C8" t="n">
-        <v>1604.403019572236</v>
+        <v>1570.571834778228</v>
       </c>
       <c r="D8" t="n">
-        <v>1604.403019572236</v>
+        <v>1212.306136171478</v>
       </c>
       <c r="E8" t="n">
-        <v>1218.614766973992</v>
+        <v>826.5178835732336</v>
       </c>
       <c r="F8" t="n">
-        <v>807.6288621843842</v>
+        <v>415.531978783626</v>
       </c>
       <c r="G8" t="n">
-        <v>390.5410804208116</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>72.31796519332113</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>478.6443448337932</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>1031.457603079992</v>
+        <v>785.3786496953994</v>
       </c>
       <c r="M8" t="n">
-        <v>1663.175414063304</v>
+        <v>972.0780625208071</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980023</v>
+        <v>1599.385730580654</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2022.658083904027</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4843,13 +4843,13 @@
         <v>2326.134191782762</v>
       </c>
       <c r="W8" t="n">
-        <v>1973.365536512648</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="X8" t="n">
-        <v>1973.365536512648</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="Y8" t="n">
-        <v>1973.365536512648</v>
+        <v>2326.134191782762</v>
       </c>
     </row>
     <row r="9">
@@ -4892,16 +4892,16 @@
         <v>887.7329259922928</v>
       </c>
       <c r="M9" t="n">
-        <v>1528.278275459397</v>
+        <v>1233.514064314702</v>
       </c>
       <c r="N9" t="n">
-        <v>2195.822675486408</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O9" t="n">
-        <v>2355.334988155169</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
-        <v>2464.024615682467</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.5498268249811</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>222.5498268249811</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>222.5498268249811</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>222.5498268249811</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>222.5498268249811</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4986,28 +4986,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>634.2475255767915</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>634.2475255767915</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>344.8303555398309</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>344.8303555398309</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.5498268249811</v>
+        <v>849.4473100711502</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,16 +5029,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111718</v>
@@ -5068,13 +5068,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5120,25 +5120,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191926</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349515</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>923.0670414349515</v>
+        <v>840.8417932021787</v>
       </c>
       <c r="N12" t="n">
-        <v>1550.665004989558</v>
+        <v>1468.439756756786</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703119</v>
+        <v>707.6725264685185</v>
       </c>
       <c r="C13" t="n">
-        <v>695.5020655703119</v>
+        <v>538.7363435406115</v>
       </c>
       <c r="D13" t="n">
-        <v>545.3854261579761</v>
+        <v>388.6197041282757</v>
       </c>
       <c r="E13" t="n">
-        <v>397.472332575583</v>
+        <v>240.7066105458824</v>
       </c>
       <c r="F13" t="n">
-        <v>250.5823850776726</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
         <v>93.81666304797189</v>
@@ -5199,52 +5199,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377267</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340306</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>1110.113570442289</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>889.3209912987584</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,55 +5266,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1520.445529061503</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>697.5276345711974</v>
+        <v>549.6145409888046</v>
       </c>
       <c r="C16" t="n">
-        <v>697.5276345711974</v>
+        <v>549.6145409888046</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>549.6145409888046</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>549.6145409888046</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2415.678320081397</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2232.823485736301</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2013.222020759242</v>
       </c>
       <c r="U16" t="n">
-        <v>1872.059887685832</v>
+        <v>1724.14679410344</v>
       </c>
       <c r="V16" t="n">
-        <v>1617.375399479945</v>
+        <v>1469.462305897553</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.958229442984</v>
+        <v>1180.045135860592</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.968678544967</v>
+        <v>952.0555849625747</v>
       </c>
       <c r="Y16" t="n">
-        <v>879.1760994014371</v>
+        <v>731.2630058190445</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5515,22 +5515,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
@@ -5554,10 +5554,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5597,22 +5597,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951538</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400697</v>
       </c>
       <c r="C19" t="n">
-        <v>734.6461798836013</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="D19" t="n">
-        <v>734.6461798836013</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="E19" t="n">
-        <v>586.7330863012082</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="F19" t="n">
-        <v>439.8431388032978</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="G19" t="n">
-        <v>272.6470395181778</v>
+        <v>317.6151975578605</v>
       </c>
       <c r="H19" t="n">
-        <v>130.9352083603759</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5691,34 +5691,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138398</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="20">
@@ -5731,13 +5731,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5749,16 +5749,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.55866301478</v>
@@ -5767,10 +5767,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>781.8178837532264</v>
+        <v>571.6607764188011</v>
       </c>
       <c r="C22" t="n">
-        <v>781.8178837532264</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5928,34 +5928,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189239</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1701.665648661974</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1412.248478625014</v>
+        <v>1202.091371290589</v>
       </c>
       <c r="X22" t="n">
-        <v>1184.258927726996</v>
+        <v>974.1018203925712</v>
       </c>
       <c r="Y22" t="n">
-        <v>963.4663485834661</v>
+        <v>753.309241249041</v>
       </c>
     </row>
     <row r="23">
@@ -5980,16 +5980,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5998,10 +5998,10 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6068,28 +6068,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3260.450525729772</v>
+        <v>707.6725264685185</v>
       </c>
       <c r="C25" t="n">
-        <v>3091.514342801865</v>
+        <v>538.7363435406115</v>
       </c>
       <c r="D25" t="n">
-        <v>2941.39770338953</v>
+        <v>388.6197041282757</v>
       </c>
       <c r="E25" t="n">
-        <v>2793.484609807137</v>
+        <v>240.7066105458824</v>
       </c>
       <c r="F25" t="n">
-        <v>2646.594662309226</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>2479.398563024106</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>4507.978318053498</v>
+        <v>2390.881471216015</v>
       </c>
       <c r="T25" t="n">
-        <v>4288.376853076439</v>
+        <v>2171.280006238956</v>
       </c>
       <c r="U25" t="n">
-        <v>4288.376853076439</v>
+        <v>1882.204779583154</v>
       </c>
       <c r="V25" t="n">
-        <v>4033.692364870552</v>
+        <v>1627.520291377267</v>
       </c>
       <c r="W25" t="n">
-        <v>3744.275194833592</v>
+        <v>1338.103121340306</v>
       </c>
       <c r="X25" t="n">
-        <v>3516.285643935575</v>
+        <v>1110.113570442289</v>
       </c>
       <c r="Y25" t="n">
-        <v>3295.493064792045</v>
+        <v>889.3209912987584</v>
       </c>
     </row>
     <row r="26">
@@ -6214,31 +6214,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>2233.355914590558</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>2567.280686761779</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>2567.280686761779</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>2854.44064873475</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>3482.038612289356</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3173.601046153952</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153952</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>4151.857387650098</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>3897.172899444211</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>3607.75572940725</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>3576.042090127722</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>3355.249510984192</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3200.825397924057</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>3031.88921499615</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>2881.772575583814</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>2733.859482001421</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>2586.969534503511</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>2419.773435218391</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3382.473862754297</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3382.473862754297</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6794,13 +6794,13 @@
         <v>1814.118720444889</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P33" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,10 +6919,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6934,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6979,7 +6979,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>2381.235169913446</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>2389.334518447046</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>2884.660124662805</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>3482.038612289356</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>3482.038612289356</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>4033.948342528643</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>4457.571492023711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2126.309465880251</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>175.8744207939072</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>671.2000270096659</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M39" t="n">
-        <v>1268.578514636218</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190825</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>762.5348780504994</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2393.887426582372</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2393.887426582372</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2174.285961605313</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1885.210734949511</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1630.526246743624</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1341.109076706663</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1113.119525808646</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,7 +7408,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111716</v>
@@ -7420,16 +7420,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7490,28 +7490,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.7084350851671</v>
+        <v>985.7836617409695</v>
       </c>
       <c r="C43" t="n">
-        <v>527.7722521572603</v>
+        <v>816.8474788130626</v>
       </c>
       <c r="D43" t="n">
-        <v>527.7722521572603</v>
+        <v>666.7308394007268</v>
       </c>
       <c r="E43" t="n">
-        <v>379.8591585748671</v>
+        <v>518.8177458183337</v>
       </c>
       <c r="F43" t="n">
-        <v>379.8591585748671</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
         <v>317.6151975578601</v>
@@ -7602,19 +7602,19 @@
         <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1905.631426649717</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1616.214256612757</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.149479058937</v>
+        <v>1388.224705714739</v>
       </c>
       <c r="Y43" t="n">
-        <v>878.3568999154069</v>
+        <v>1167.432126571209</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7727,25 +7727,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349513</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M45" t="n">
-        <v>923.0670414349513</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3342.537229081859</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C46" t="n">
-        <v>3173.601046153952</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D46" t="n">
-        <v>3023.484406741616</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E46" t="n">
-        <v>2875.571313159223</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467152</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>3677.571434467152</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>3563.329808225389</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>3342.537229081859</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8063,13 +8063,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627882</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711643</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9238900028825</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>148.2422363886229</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>255.659927279206</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8540,19 +8540,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>167.9634363311152</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>151.0368508858076</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>10.32607348286513</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856565</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>191.8807364711636</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856565</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>35.40333084624656</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>181.8372934928148</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.4949402405098</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>44.51847645928558</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856568</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>57.22910392194395</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>198.9093934729019</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>145.1398665102878</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856568</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012183</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>125.5054897610428</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>194.3131525023037</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>220.0860577299009</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>252.5180899036441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>13.83034628221165</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>111.7546635373313</v>
       </c>
       <c r="G43" t="n">
-        <v>103.9026168854319</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>112.6104454096911</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>630418.1664798533</v>
+        <v>630418.1664798532</v>
       </c>
     </row>
     <row r="6">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>630418.1664798534</v>
+        <v>630418.1664798533</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>630418.1664798533</v>
+        <v>630418.1664798534</v>
       </c>
     </row>
     <row r="16">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="D2" t="n">
         <v>800515.7256176763</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="F2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="G2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="H2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.934697756</v>
       </c>
       <c r="I2" t="n">
-        <v>786967.9346977555</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="J2" t="n">
         <v>786967.9346977557</v>
@@ -26343,19 +26343,19 @@
         <v>786967.934697756</v>
       </c>
       <c r="L2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="M2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="M2" t="n">
-        <v>786967.9346977558</v>
-      </c>
       <c r="N2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="O2" t="n">
         <v>786967.934697756</v>
       </c>
-      <c r="O2" t="n">
-        <v>786967.9346977558</v>
-      </c>
       <c r="P2" t="n">
-        <v>786967.9346977555</v>
+        <v>786967.9346977556</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808068</v>
+        <v>771052.6913808067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,7 +26392,7 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>2.195332038762241e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>209922.4154630332</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26426,31 +26426,31 @@
         <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682704</v>
+        <v>5677.536566682543</v>
       </c>
       <c r="F4" t="n">
+        <v>5677.53656668262</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5677.53656668269</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5677.53656668269</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5677.536566682702</v>
+      </c>
+      <c r="J4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="G4" t="n">
+      <c r="K4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="L4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="H4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="M4" t="n">
         <v>5677.536566682744</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5677.536566682744</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5677.536566682745</v>
       </c>
       <c r="N4" t="n">
         <v>5677.536566682745</v>
@@ -26459,7 +26459,7 @@
         <v>5677.536566682745</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-82233.64712331074</v>
+        <v>-82233.64712331092</v>
       </c>
       <c r="C6" t="n">
-        <v>507734.2320912337</v>
+        <v>507734.2320912335</v>
       </c>
       <c r="D6" t="n">
-        <v>351930.4259974385</v>
+        <v>351930.4259974386</v>
       </c>
       <c r="E6" t="n">
-        <v>-90884.82307364106</v>
+        <v>-91232.20232799725</v>
       </c>
       <c r="F6" t="n">
-        <v>680167.8683071663</v>
+        <v>679820.489052809</v>
       </c>
       <c r="G6" t="n">
-        <v>680167.8683071658</v>
+        <v>679820.4890528095</v>
       </c>
       <c r="H6" t="n">
-        <v>680167.8683071659</v>
+        <v>679820.4890528092</v>
       </c>
       <c r="I6" t="n">
-        <v>680167.8683071657</v>
+        <v>679820.4890528091</v>
       </c>
       <c r="J6" t="n">
-        <v>503744.6491145729</v>
+        <v>503397.2698602159</v>
       </c>
       <c r="K6" t="n">
-        <v>680167.8683071662</v>
+        <v>679820.4890528092</v>
       </c>
       <c r="L6" t="n">
-        <v>680167.8683071659</v>
+        <v>679820.4890528093</v>
       </c>
       <c r="M6" t="n">
-        <v>555959.3575991074</v>
+        <v>555611.9783447504</v>
       </c>
       <c r="N6" t="n">
-        <v>680167.8683071662</v>
+        <v>679820.489052809</v>
       </c>
       <c r="O6" t="n">
-        <v>680167.8683071659</v>
+        <v>679820.4890528091</v>
       </c>
       <c r="P6" t="n">
-        <v>680167.8683071657</v>
+        <v>679820.4890528088</v>
       </c>
     </row>
   </sheetData>
@@ -26709,10 +26709,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.744165048452801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26801,7 +26801,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.744165048452801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.744165048452801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>230.1634036199147</v>
+        <v>333.415037428428</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27426,22 +27426,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27545,19 +27545,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>82.85718120047548</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27593,13 +27593,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>40.32635200869768</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>202.6160280512687</v>
       </c>
       <c r="V5" t="n">
-        <v>188.8052277856831</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27779,13 +27779,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27818,22 +27818,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>14.2946302304367</v>
       </c>
       <c r="T7" t="n">
-        <v>174.9784517519556</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>54.94379695230782</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>100.3048073546632</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
@@ -28067,19 +28067,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>97.52692992439344</v>
+        <v>16.19860367562146</v>
       </c>
     </row>
     <row r="11">
@@ -28098,16 +28098,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-8.858921134937141e-14</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,10 +28140,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-2.728484105318785e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28341,10 +28341,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,19 +28377,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
     </row>
     <row r="17">
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
     </row>
     <row r="20">
@@ -28812,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
     </row>
     <row r="23">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>-1.287209419513539e-13</v>
       </c>
     </row>
     <row r="26">
@@ -31840,28 +31840,28 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>690.2058188111464</v>
+        <v>537.6437863443689</v>
       </c>
       <c r="P12" t="n">
         <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>339.3493584601583</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>522.1224556861836</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32317,25 +32317,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>567.5882829286713</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32557,10 +32557,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>248.7449369209195</v>
+        <v>614.7544723218309</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32572,7 +32572,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32788,10 +32788,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>616.375287159485</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,31 +33022,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>432.1946015714839</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33262,10 +33262,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>188.4731159523455</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>653.3850396373771</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>291.8940795642898</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33736,19 +33736,19 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>146.0225991093083</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>218.9428233593773</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,13 +33988,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34210,10 +34210,10 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473073</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>291.8940795642898</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34447,19 +34447,19 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>381.6404378718164</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>556.7959610899857</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437244</v>
@@ -34468,7 +34468,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34783,13 +34783,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34938,7 +34938,7 @@
         <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343415</v>
       </c>
       <c r="L5" t="n">
         <v>421.5361394435302</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932192</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>344.539421127999</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>427.5478316397711</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>349.2738770933423</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>174.0034581605318</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>547.609574366702</v>
+        <v>395.0475418999244</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>37.00975247789216</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295332</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>200.7949786802841</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>379.5262112417391</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295332</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35822,10 +35822,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>425.454249006653</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295323</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,10 +36205,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>110.1905571410453</v>
+        <v>476.2000925419567</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36220,7 +36220,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295323</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>473.7790427150405</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295323</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36606,7 +36606,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>290.0605676494656</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36846,7 +36846,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>45.87687150790109</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>510.7887951929326</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>151.9123054782682</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>8.181160134949316</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>81.10138438501833</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,13 +37636,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.3288951674331</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38095,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>243.7989988974574</v>
       </c>
       <c r="L45" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>425.4542490066523</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.48457599928</v>
@@ -38116,7 +38116,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3914491.278207134</v>
+        <v>3916251.80850992</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283192</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>80.36913259236702</v>
+        <v>386.0717026754678</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,7 +715,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -837,7 +837,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>52.10844059186275</v>
+        <v>52.10844059186253</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>375.2554594835383</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>48.60813945702061</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>14.46389722690856</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>197.8509087195822</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>357.973106993629</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>171.4701275066043</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>129.2224443473097</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.3860496764733</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,19 +1372,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206831</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012179</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892443</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V13" t="n">
-        <v>60.25690685266458</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569554</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881288</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717414</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>30.97191586387523</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016447</v>
+        <v>120.1447214650593</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892443</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695544</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>27.02919805175917</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.294712846224</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856568</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012183</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634798</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2092,10 +2092,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881288</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.524138292269</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012183</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
-        <v>123.7971820797008</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819374</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C25" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>55.52079624060195</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2721,10 +2721,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>41.55695577161151</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>1.79977260571614</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3556,10 +3556,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>33.66638448559998</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>546.109828622464</v>
+        <v>854.9003034538789</v>
       </c>
       <c r="C2" t="n">
-        <v>546.109828622464</v>
+        <v>854.9003034538789</v>
       </c>
       <c r="D2" t="n">
-        <v>546.109828622464</v>
+        <v>854.9003034538789</v>
       </c>
       <c r="E2" t="n">
-        <v>546.109828622464</v>
+        <v>854.9003034538789</v>
       </c>
       <c r="F2" t="n">
-        <v>135.1239238328564</v>
+        <v>443.9143986642713</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1245.039635429691</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>854.9003034538789</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4415,19 +4415,19 @@
         <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>580.2158906240413</v>
+        <v>580.2158906240411</v>
       </c>
       <c r="F4" t="n">
-        <v>433.3259431261309</v>
+        <v>433.3259431261307</v>
       </c>
       <c r="G4" t="n">
-        <v>264.3261428644633</v>
+        <v>264.3261428644631</v>
       </c>
       <c r="H4" t="n">
-        <v>106.5777702969935</v>
+        <v>106.5777702969933</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1359.546482223453</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>990.5839652830418</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762914</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2416.843783098218</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2085.780895754648</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1733.012240484533</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>1359.546482223453</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y5" t="n">
-        <v>1359.546482223453</v>
+        <v>1970.914677487028</v>
       </c>
     </row>
     <row r="6">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>498.8626623130036</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="S7" t="n">
-        <v>498.8626623130036</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="T7" t="n">
-        <v>498.8626623130036</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="U7" t="n">
-        <v>498.8626623130036</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="V7" t="n">
-        <v>498.8626623130036</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="W7" t="n">
-        <v>498.8626623130036</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="X7" t="n">
-        <v>498.8626623130036</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="Y7" t="n">
-        <v>498.8626623130036</v>
+        <v>713.5189870075369</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1939.53435171864</v>
+        <v>1590.992732478547</v>
       </c>
       <c r="C8" t="n">
-        <v>1570.571834778228</v>
+        <v>1222.030215538135</v>
       </c>
       <c r="D8" t="n">
-        <v>1212.306136171478</v>
+        <v>863.7645169313847</v>
       </c>
       <c r="E8" t="n">
-        <v>826.5178835732336</v>
+        <v>477.9762643331405</v>
       </c>
       <c r="F8" t="n">
-        <v>415.531978783626</v>
+        <v>66.99035954353293</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4807,19 +4807,19 @@
         <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>325.1460354086931</v>
       </c>
       <c r="L8" t="n">
-        <v>785.3786496953994</v>
+        <v>877.9592936548923</v>
       </c>
       <c r="M8" t="n">
-        <v>972.0780625208071</v>
+        <v>1509.677104638204</v>
       </c>
       <c r="N8" t="n">
-        <v>1599.385730580654</v>
+        <v>2136.984772698051</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2341.238804993795</v>
       </c>
       <c r="P8" t="n">
         <v>2451.973130243322</v>
@@ -4834,22 +4834,22 @@
         <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.134191782762</v>
+        <v>2367.73190451848</v>
       </c>
       <c r="U8" t="n">
-        <v>2326.134191782762</v>
+        <v>2367.73190451848</v>
       </c>
       <c r="V8" t="n">
-        <v>2326.134191782762</v>
+        <v>2367.73190451848</v>
       </c>
       <c r="W8" t="n">
-        <v>2326.134191782762</v>
+        <v>2367.73190451848</v>
       </c>
       <c r="X8" t="n">
-        <v>2326.134191782762</v>
+        <v>2367.73190451848</v>
       </c>
       <c r="Y8" t="n">
-        <v>2326.134191782762</v>
+        <v>1977.592572542669</v>
       </c>
     </row>
     <row r="9">
@@ -4886,19 +4886,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>121.5508014837215</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>439.3591974267897</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.514064314702</v>
+        <v>1079.904546893894</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1747.448946920904</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2296.884955673627</v>
       </c>
       <c r="P9" t="n">
         <v>2405.574583200926</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -5004,10 +5004,10 @@
         <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3499417167701</v>
       </c>
       <c r="Y10" t="n">
-        <v>849.4473100711502</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021787</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756786</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.6725264685185</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406115</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282757</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458824</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5232,19 +5232,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1627.520291377267</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.103121340306</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442289</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987584</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403286</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>549.6145409888046</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C16" t="n">
-        <v>549.6145409888046</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888046</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888046</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908941</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057739</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2415.678320081397</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2232.823485736301</v>
+        <v>2325.6047790701</v>
       </c>
       <c r="T16" t="n">
-        <v>2013.222020759242</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="U16" t="n">
-        <v>1724.14679410344</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V16" t="n">
-        <v>1469.462305897553</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W16" t="n">
-        <v>1180.045135860592</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X16" t="n">
-        <v>952.0555849625747</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y16" t="n">
-        <v>731.2630058190445</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,7 +5533,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400697</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121627</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121627</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121627</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121627</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578605</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5691,34 +5691,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138398</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703096</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5731,16 +5731,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5837,22 +5837,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>716.6687843969308</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188011</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908941</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908941</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908941</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908941</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057739</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,13 +5910,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5928,19 +5928,19 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
         <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189239</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
         <v>1746.193029533436</v>
@@ -5949,13 +5949,13 @@
         <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290589</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925712</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.309241249041</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5977,31 +5977,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.6725264685185</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406115</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282757</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458824</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,13 +6147,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6165,34 +6165,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2390.881471216015</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2171.280006238956</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583154</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377267</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340306</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442289</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987584</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6223,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6265,10 +6265,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>277.5052172074016</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>135.7933860495997</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6414,22 +6414,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6615,7 +6615,7 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362687</v>
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,10 +6712,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6919,10 +6919,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6931,28 +6931,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7174,19 +7174,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
         <v>402.7245934908939</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7393,10 +7393,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>985.7836617409695</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>816.8474788130626</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>666.7308394007268</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>518.8177458183337</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1905.631426649717</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1616.214256612757</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1388.224705714739</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1167.432126571209</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7730,19 +7730,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>484.8243144841094</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>980.1499206998682</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1577.52840832642</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711643</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>255.659927279206</v>
+        <v>34.4292999785705</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,22 +8534,22 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>182.4028261892669</v>
       </c>
       <c r="M9" t="n">
-        <v>167.9634363311152</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -10366,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856565</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V13" t="n">
-        <v>191.8807364711636</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.246821098628</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856565</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.40333084624656</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>60.8815645365853</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405098</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856568</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
-        <v>57.22910392194395</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856568</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012183</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>125.5054897610428</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24609,10 +24609,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>39.70888054695403</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,10 +24654,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.4949402405078</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>111.7546635373313</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>630418.1664798532</v>
+        <v>630418.1664798533</v>
       </c>
     </row>
     <row r="6">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>630418.1664798534</v>
+        <v>630418.1664798533</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>630418.1664798534</v>
+        <v>630418.1664798533</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>800515.7256176764</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176765</v>
       </c>
       <c r="E2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="F2" t="n">
         <v>786967.9346977561</v>
       </c>
-      <c r="F2" t="n">
-        <v>786967.9346977557</v>
-      </c>
       <c r="G2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977562</v>
       </c>
       <c r="H2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="I2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="J2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="K2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="K2" t="n">
-        <v>786967.934697756</v>
-      </c>
       <c r="L2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="M2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="N2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.934697756</v>
       </c>
       <c r="O2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977558</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808067</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,16 +26395,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080586</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,37 +26423,37 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682543</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.53656668262</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.53656668269</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.53656668269</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682702</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="K4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682726</v>
       </c>
       <c r="M4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="O4" t="n">
         <v>5677.536566682745</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-82233.64712331092</v>
+        <v>-82233.6471233108</v>
       </c>
       <c r="C6" t="n">
-        <v>507734.2320912335</v>
+        <v>507734.2320912337</v>
       </c>
       <c r="D6" t="n">
-        <v>351930.4259974386</v>
+        <v>351930.4259974388</v>
       </c>
       <c r="E6" t="n">
-        <v>-91232.20232799725</v>
+        <v>-90919.56099907609</v>
       </c>
       <c r="F6" t="n">
-        <v>679820.489052809</v>
+        <v>680133.1303817306</v>
       </c>
       <c r="G6" t="n">
-        <v>679820.4890528095</v>
+        <v>680133.1303817307</v>
       </c>
       <c r="H6" t="n">
-        <v>679820.4890528092</v>
+        <v>680133.1303817306</v>
       </c>
       <c r="I6" t="n">
-        <v>679820.4890528091</v>
+        <v>680133.1303817304</v>
       </c>
       <c r="J6" t="n">
-        <v>503397.2698602159</v>
+        <v>503709.9111891371</v>
       </c>
       <c r="K6" t="n">
-        <v>679820.4890528092</v>
+        <v>680133.1303817303</v>
       </c>
       <c r="L6" t="n">
-        <v>679820.4890528093</v>
+        <v>680133.1303817303</v>
       </c>
       <c r="M6" t="n">
-        <v>555611.9783447504</v>
+        <v>555924.6196736718</v>
       </c>
       <c r="N6" t="n">
-        <v>679820.489052809</v>
+        <v>680133.1303817306</v>
       </c>
       <c r="O6" t="n">
-        <v>679820.4890528091</v>
+        <v>680133.1303817306</v>
       </c>
       <c r="P6" t="n">
-        <v>679820.4890528088</v>
+        <v>680133.1303817304</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26798,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036091</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>333.415037428428</v>
+        <v>27.71246734532718</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>82.85718120047548</v>
+        <v>82.85718120047571</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>7.47838217994223</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>202.6160280512687</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>14.65885272800574</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>14.2946302304367</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>54.94379695230782</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>41.18173560836169</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>96.48721104172748</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.19860367562146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28098,16 +28098,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-8.858921134937141e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-2.728484105318785e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28341,10 +28341,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,19 +28377,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28812,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,13 +31831,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31849,31 +31849,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>537.6437863443689</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>248.3870916262918</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>339.3493584601583</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
@@ -32323,7 +32323,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>232.1537035940586</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32332,13 +32332,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32557,16 +32557,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>614.7544723218309</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>535.8585467435948</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32575,7 +32575,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32718,7 +32718,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N23" t="n">
         <v>981.2715114159425</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33034,16 +33034,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>639.4703354763103</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33259,34 +33259,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>577.7447198439388</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>653.3850396373771</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,13 +33727,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33742,34 +33742,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>270.9486956727256</v>
+        <v>232.153703594058</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33979,25 +33979,25 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>732.4825987614915</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>545.9074025036812</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,22 +34450,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>381.6404378718164</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34783,22 +34783,22 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343415</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
         <v>421.5361394435302</v>
@@ -35175,22 +35175,22 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>427.5478316397711</v>
+        <v>206.3172043391357</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
         <v>247.6524856312129</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>321.018581760675</v>
       </c>
       <c r="M9" t="n">
-        <v>349.2738770933423</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35497,22 +35497,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>395.0475418999244</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295332</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35585,10 +35585,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>200.7949786802841</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295332</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35822,10 +35822,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35971,7 +35971,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>90.01966967204032</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35980,13 +35980,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295323</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>476.2000925419567</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>393.2623022991504</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36223,7 +36223,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295323</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295323</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36682,16 +36682,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>508.128623392977</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>510.7887951929326</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37390,25 +37390,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>128.8146617507074</v>
+        <v>90.01966967203964</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37627,25 +37627,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>590.3485648394733</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>403.7733685816629</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>243.7989988974574</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
